--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/FILTRO3X3/kernels/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/FILTRO3X3/kernels/resultados.xlsx
@@ -20,16 +20,16 @@
     <t>kernel_filter_color</t>
   </si>
   <si>
-    <t>kernel_filter_color_local</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local2</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local3</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local4</t>
+    <t>kernel_filter_color_local_ineficiente</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_hebra_maestra</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_organizado</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_organizado_junto</t>
   </si>
   <si>
     <t>kernel_filter_color_rectangular</t>
@@ -467,22 +467,22 @@
         <v>6.144000000000001E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>7.008E-06</v>
+        <v>7.104E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>1.136E-05</v>
+        <v>1.3088E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>5.12E-06</v>
+        <v>6.016000000000001E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>5.312E-06</v>
+        <v>7.136000000000001E-06</v>
       </c>
       <c r="G2" s="1">
-        <v>9.92E-06</v>
+        <v>1.1264E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>1.1136E-05</v>
+        <v>1.2224E-05</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -490,25 +490,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.816E-06</v>
       </c>
       <c r="C3" s="1">
+        <v>7.264E-06</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.344E-05</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.496E-06</v>
+      </c>
+      <c r="F3" s="1">
         <v>7.168000000000001E-06</v>
       </c>
-      <c r="D3" s="1">
-        <v>1.2192E-05</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6.976000000000001E-06</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6.368000000000001E-06</v>
-      </c>
       <c r="G3" s="1">
-        <v>1.1136E-05</v>
+        <v>1.1264E-05</v>
       </c>
       <c r="H3" s="1">
-        <v>1.024E-05</v>
+        <v>1.3856E-05</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -516,25 +516,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>2.5664E-05</v>
+        <v>2.6528E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>3.4816E-05</v>
+        <v>3.584E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>7.862400000000001E-05</v>
+        <v>7.8848E-05</v>
       </c>
       <c r="E4" s="1">
-        <v>1.7408E-05</v>
+        <v>1.8496E-05</v>
       </c>
       <c r="F4" s="1">
-        <v>1.8336E-05</v>
+        <v>1.8432E-05</v>
       </c>
       <c r="G4" s="1">
-        <v>3.0848E-05</v>
+        <v>3.3696E-05</v>
       </c>
       <c r="H4" s="1">
-        <v>3.072E-05</v>
+        <v>3.2768E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -542,13 +542,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>2.16E-05</v>
+        <v>2.3424E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>3.072E-05</v>
+        <v>3.1424E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>0.000115712</v>
+        <v>0.000114688</v>
       </c>
       <c r="E5" s="1">
         <v>2.1504E-05</v>
@@ -557,10 +557,10 @@
         <v>2.1504E-05</v>
       </c>
       <c r="G5" s="1">
-        <v>3.584E-05</v>
+        <v>3.7888E-05</v>
       </c>
       <c r="H5" s="1">
-        <v>3.4016E-05</v>
+        <v>3.6736E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -568,25 +568,25 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>3.993600000000001E-05</v>
+        <v>4.003200000000001E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>5.3184E-05</v>
+        <v>5.4272E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000214752</v>
+        <v>0.000212992</v>
       </c>
       <c r="E6" s="1">
-        <v>3.7792E-05</v>
+        <v>3.8912E-05</v>
       </c>
       <c r="F6" s="1">
-        <v>3.6864E-05</v>
+        <v>3.8912E-05</v>
       </c>
       <c r="G6" s="1">
-        <v>6.1152E-05</v>
+        <v>6.140800000000001E-05</v>
       </c>
       <c r="H6" s="1">
-        <v>5.9392E-05</v>
+        <v>6.1728E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -597,22 +597,22 @@
         <v>0.000134144</v>
       </c>
       <c r="C7" s="1">
-        <v>0.000196512</v>
+        <v>0.000197344</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000475136</v>
+        <v>0.000473088</v>
       </c>
       <c r="E7" s="1">
-        <v>8.576000000000001E-05</v>
+        <v>8.704000000000001E-05</v>
       </c>
       <c r="F7" s="1">
-        <v>8.723200000000001E-05</v>
+        <v>8.784E-05</v>
       </c>
       <c r="G7" s="1">
-        <v>0.000145408</v>
+        <v>0.0001456</v>
       </c>
       <c r="H7" s="1">
-        <v>0.000133024</v>
+        <v>0.000131328</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -620,25 +620,25 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000277504</v>
+        <v>0.000279552</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000402144</v>
+        <v>0.000402432</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00185856</v>
+        <v>0.001842976</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000279584</v>
+        <v>0.000279552</v>
       </c>
       <c r="F8" s="1">
-        <v>0.000279552</v>
+        <v>0.0002808</v>
       </c>
       <c r="G8" s="1">
-        <v>0.000423552</v>
+        <v>0.000425792</v>
       </c>
       <c r="H8" s="1">
-        <v>0.000398464</v>
+        <v>0.000401696</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -646,25 +646,25 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001878016</v>
+        <v>0.00187888</v>
       </c>
       <c r="C9" s="1">
-        <v>0.003067904</v>
+        <v>0.003065856</v>
       </c>
       <c r="D9" s="1">
-        <v>0.010739712</v>
+        <v>0.010645504</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001645568</v>
+        <v>0.00164864</v>
       </c>
       <c r="F9" s="1">
-        <v>0.001645536</v>
+        <v>0.001649376</v>
       </c>
       <c r="G9" s="1">
-        <v>0.0025296</v>
+        <v>0.003074048</v>
       </c>
       <c r="H9" s="1">
-        <v>0.002784928</v>
+        <v>0.002499584</v>
       </c>
     </row>
   </sheetData>
@@ -717,22 +717,22 @@
         <v>6.144000000000001E-06</v>
       </c>
       <c r="C2" s="1">
-        <v>7.008E-06</v>
+        <v>7.104E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>1.136E-05</v>
+        <v>1.3088E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>5.12E-06</v>
+        <v>6.016000000000001E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>5.312E-06</v>
+        <v>7.136000000000001E-06</v>
       </c>
       <c r="G2" s="1">
-        <v>9.92E-06</v>
+        <v>1.1264E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>1.1136E-05</v>
+        <v>1.2224E-05</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -740,25 +740,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>6.816E-06</v>
       </c>
       <c r="C3" s="1">
+        <v>7.264E-06</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.344E-05</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.496E-06</v>
+      </c>
+      <c r="F3" s="1">
         <v>7.168000000000001E-06</v>
       </c>
-      <c r="D3" s="1">
-        <v>1.2192E-05</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6.976000000000001E-06</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6.368000000000001E-06</v>
-      </c>
       <c r="G3" s="1">
-        <v>1.1136E-05</v>
+        <v>1.1264E-05</v>
       </c>
       <c r="H3" s="1">
-        <v>1.024E-05</v>
+        <v>1.3856E-05</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -766,25 +766,25 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>2.5664E-05</v>
+        <v>2.6528E-05</v>
       </c>
       <c r="C4" s="1">
-        <v>3.4816E-05</v>
+        <v>3.584E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>7.862400000000001E-05</v>
+        <v>7.8848E-05</v>
       </c>
       <c r="E4" s="1">
-        <v>1.7408E-05</v>
+        <v>1.8496E-05</v>
       </c>
       <c r="F4" s="1">
-        <v>1.8336E-05</v>
+        <v>1.8432E-05</v>
       </c>
       <c r="G4" s="1">
-        <v>3.0848E-05</v>
+        <v>3.3696E-05</v>
       </c>
       <c r="H4" s="1">
-        <v>3.072E-05</v>
+        <v>3.2768E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -792,13 +792,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>2.16E-05</v>
+        <v>2.3424E-05</v>
       </c>
       <c r="C5" s="1">
-        <v>3.072E-05</v>
+        <v>3.1424E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>0.000115712</v>
+        <v>0.000114688</v>
       </c>
       <c r="E5" s="1">
         <v>2.1504E-05</v>
@@ -807,10 +807,10 @@
         <v>2.1504E-05</v>
       </c>
       <c r="G5" s="1">
-        <v>3.584E-05</v>
+        <v>3.7888E-05</v>
       </c>
       <c r="H5" s="1">
-        <v>3.4016E-05</v>
+        <v>3.6736E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -818,25 +818,25 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>3.993600000000001E-05</v>
+        <v>4.003200000000001E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>5.3184E-05</v>
+        <v>5.4272E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000214752</v>
+        <v>0.000212992</v>
       </c>
       <c r="E6" s="1">
-        <v>3.7792E-05</v>
+        <v>3.8912E-05</v>
       </c>
       <c r="F6" s="1">
-        <v>3.6864E-05</v>
+        <v>3.8912E-05</v>
       </c>
       <c r="G6" s="1">
-        <v>6.1152E-05</v>
+        <v>6.140800000000001E-05</v>
       </c>
       <c r="H6" s="1">
-        <v>5.9392E-05</v>
+        <v>6.1728E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -847,22 +847,22 @@
         <v>0.000134144</v>
       </c>
       <c r="C7" s="1">
-        <v>0.000196512</v>
+        <v>0.000197344</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000475136</v>
+        <v>0.000473088</v>
       </c>
       <c r="E7" s="1">
-        <v>8.576000000000001E-05</v>
+        <v>8.704000000000001E-05</v>
       </c>
       <c r="F7" s="1">
-        <v>8.723200000000001E-05</v>
+        <v>8.784E-05</v>
       </c>
       <c r="G7" s="1">
-        <v>0.000145408</v>
+        <v>0.0001456</v>
       </c>
       <c r="H7" s="1">
-        <v>0.000133024</v>
+        <v>0.000131328</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -870,25 +870,25 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>0.000277504</v>
+        <v>0.000279552</v>
       </c>
       <c r="C8" s="1">
-        <v>0.000402144</v>
+        <v>0.000402432</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00185856</v>
+        <v>0.001842976</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000279584</v>
+        <v>0.000279552</v>
       </c>
       <c r="F8" s="1">
-        <v>0.000279552</v>
+        <v>0.0002808</v>
       </c>
       <c r="G8" s="1">
-        <v>0.000423552</v>
+        <v>0.000425792</v>
       </c>
       <c r="H8" s="1">
-        <v>0.000398464</v>
+        <v>0.000401696</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -896,25 +896,25 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>0.001878016</v>
+        <v>0.00187888</v>
       </c>
       <c r="C9" s="1">
-        <v>0.003067904</v>
+        <v>0.003065856</v>
       </c>
       <c r="D9" s="1">
-        <v>0.010739712</v>
+        <v>0.010645504</v>
       </c>
       <c r="E9" s="1">
-        <v>0.001645568</v>
+        <v>0.00164864</v>
       </c>
       <c r="F9" s="1">
-        <v>0.001645536</v>
+        <v>0.001649376</v>
       </c>
       <c r="G9" s="1">
-        <v>0.0025296</v>
+        <v>0.003074048</v>
       </c>
       <c r="H9" s="1">
-        <v>0.002784928</v>
+        <v>0.002499584</v>
       </c>
     </row>
   </sheetData>
